--- a/DataBaze.xlsx
+++ b/DataBaze.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>аааоыаоыоаоыаооаоаооыаооыоыоаоыаоыаоыоаыоа</t>
   </si>
@@ -94,6 +94,21 @@
   </si>
   <si>
     <t>:grey_question:</t>
+  </si>
+  <si>
+    <t>Привет</t>
+  </si>
+  <si>
+    <t>Хватит</t>
+  </si>
+  <si>
+    <t>Ты дурак</t>
+  </si>
+  <si>
+    <t>Помоги</t>
+  </si>
+  <si>
+    <t>Куку</t>
   </si>
 </sst>
 </file>
@@ -418,7 +433,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A8:A9"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,6 +464,9 @@
       <c r="C2" t="s">
         <v>10</v>
       </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -460,6 +478,9 @@
       <c r="C3" t="s">
         <v>11</v>
       </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -471,6 +492,9 @@
       <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -482,6 +506,9 @@
       <c r="C5" t="s">
         <v>16</v>
       </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -492,6 +519,9 @@
       </c>
       <c r="C6" t="s">
         <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/DataBaze.xlsx
+++ b/DataBaze.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="225" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Тишина" sheetId="1" r:id="rId1"/>
-    <sheet name="Успокоение" sheetId="2" r:id="rId2"/>
-    <sheet name="Валеричь" sheetId="3" r:id="rId3"/>
+    <sheet name="Валерич" sheetId="3" r:id="rId2"/>
+    <sheet name="Успокоение" sheetId="2" r:id="rId3"/>
     <sheet name="Федька" sheetId="4" r:id="rId4"/>
     <sheet name="Инфа" sheetId="5" r:id="rId5"/>
   </sheets>
@@ -28,10 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
-  <si>
-    <t>аааоыаоыоаоыаооаоаооыаооыоыоаоыаоыаоыоаыоа</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
   <si>
     <t>Это база</t>
   </si>
@@ -109,6 +106,60 @@
   </si>
   <si>
     <t>Куку</t>
+  </si>
+  <si>
+    <t>Quality</t>
+  </si>
+  <si>
+    <t>Prise</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>types</t>
+  </si>
+  <si>
+    <t>qualitys</t>
+  </si>
+  <si>
+    <t>knife</t>
+  </si>
+  <si>
+    <t>glowes</t>
+  </si>
+  <si>
+    <t>pistol</t>
+  </si>
+  <si>
+    <t>assault rifle</t>
+  </si>
+  <si>
+    <t>sniper rifle</t>
+  </si>
+  <si>
+    <t>shotgun</t>
+  </si>
+  <si>
+    <t>submachine gun</t>
+  </si>
+  <si>
+    <t>machine gun</t>
+  </si>
+  <si>
+    <t>factory new</t>
+  </si>
+  <si>
+    <t>minimal wear</t>
+  </si>
+  <si>
+    <t>well-worn</t>
+  </si>
+  <si>
+    <t>battle-scarred</t>
+  </si>
+  <si>
+    <t>field-tested</t>
   </si>
 </sst>
 </file>
@@ -432,7 +483,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -445,83 +496,83 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
       <c r="D1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
         <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -530,30 +581,110 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.7109375" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -585,27 +716,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
